--- a/Documentation/Budget/Final Budget.xlsx
+++ b/Documentation/Budget/Final Budget.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -64,14 +64,49 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Shipping Cost</t>
+  </si>
+  <si>
+    <t>Replacement Cost</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>VEXRobotics</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Udoo Shop</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Robot Shop</t>
+  </si>
+  <si>
+    <t>Backup Vendor</t>
+  </si>
+  <si>
+    <t>Firgeli</t>
+  </si>
+  <si>
+    <t>Wantmotors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -132,14 +167,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -442,196 +475,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <f>D4*E4+F4</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>59.99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>59.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11.72</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H14" si="0">D5*E5+F5</f>
+        <v>71.710000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
         <v>2.95</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
-        <f>C6*B6</f>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
         <v>14.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>13.99</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="3">
         <v>13.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>12.95</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="6">
-        <f>B12*C12</f>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
         <v>38.849999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
         <v>16.95</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="6">
-        <f>B13*C13</f>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
         <v>67.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>73.430000000000007</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>79.430000000000007</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
-        <f>B14*C14</f>
-        <v>73.430000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>79.430000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <f>SUM(D4:D14)</f>
-        <v>546.81000000000006</v>
+      <c r="H15" s="1">
+        <f>SUM(H4:H14)</f>
+        <v>654.52</v>
       </c>
     </row>
   </sheetData>
